--- a/biology/Zoologie/Euchelicerata/Euchelicerata.xlsx
+++ b/biology/Zoologie/Euchelicerata/Euchelicerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euchelicerata sont un clade d'arthropodes regroupant les Arachnides (Arachnida) et les Xiphosures (Xiphosura).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Euchelicerata a été créé en 1979 par les zoologistes allemands Peter Weygoldt (d) (1933-2021) et Hannes F. Paulus (d) (1943-)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Euchelicerata a été créé en 1979 par les zoologistes allemands Peter Weygoldt (d) (1933-2021) et Hannes F. Paulus (d) (1943-).
 </t>
         </is>
       </c>
@@ -542,22 +556,24 @@
           <t>Taxons inférieurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'ITIS      (16 juillet 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'ITIS      (16 juillet 2022) :
 sous-classe des Arachnida
 sous-classe des Xiphosura
-Selon Fossiilid.info (16 juillet 2022)[3] :
+Selon Fossiilid.info (16 juillet 2022) :
 classe des Arachnida Lamarck, 1801
 ordre des Eurypterida Burmeister, 1843
 ordre des Merostomata Dana, 1852
 ordre des Pycnogonida Latreille, 1810
 classe des Xiphosura Latreille, 1802
-Selon la Paleobiology Database                   (16 juillet 2022)[1] :
+Selon la Paleobiology Database                   (16 juillet 2022) :
 genre †Houia Selden et al. 2015
 clade des Prosomapoda Lamsdell 2013
 genre †Thurandina Størmer 1974
-Selon The Taxonomicon  (16 juillet 2022)[4] :
+Selon The Taxonomicon  (16 juillet 2022) :
 genre †Mollisonia Walcott, 1912
 genre †Dibasterium Briggs, Siveter, Siveter, Sutton, Garwood &amp; Legg, 2012
 genre †Offacolus Orr, Siveter, Briggs, Siveter &amp; Sutton, 2000
